--- a/Data/PMbok/PMbok2.xlsx
+++ b/Data/PMbok/PMbok2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitTesPer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitTesPer\Data\PMbok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AAEF88-CF5F-4092-89E3-625B6572843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3544340-E8E3-4DFF-98D4-032BBDD497E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="0" windowWidth="25065" windowHeight="20985" xr2:uid="{973FA397-4C36-499A-9426-6601ED227441}"/>
+    <workbookView xWindow="11640" yWindow="0" windowWidth="22860" windowHeight="20985" xr2:uid="{973FA397-4C36-499A-9426-6601ED227441}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>Hint</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +904,145 @@
   </si>
   <si>
     <t>Focusing on outcomes, choices, and decisions emphasizes the long-range performance of the project.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.6 Provide business direction and insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> People in this function guide and clarify the direction of the project or product outcome.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This function involves prioritizing the requirements or backlog items based on business value, dependencies, and technical or operational risk.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People in this function provide feedback to project teams and set direction for the next increment or element to be developed or delivered.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function involves interacting with other stakeholders, customers, and their project teams to define the product direction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The goal is to maximize the value of the project deliverable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능의 구성원은 프로젝트 또는 제품 결과물의 방향을 안내하고 명확하게 제시합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능은 비즈니스 가치, 종속성, 그리고 기술적 또는 운영적 위험을 기반으로 요구 사항 또는 백로그 항목의 우선순위를 정하는 역할을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backlog 밀린 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능의 구성원은 프로젝트 팀에 피드백을 제공하고, 개발 또는 제공될 다음 단계 또는 요소의 방향을 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능은 다른 이해관계자, 고객 및 프로젝트 팀과 상호 작용하여 제품 방향을 정의합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표는 프로젝트 결과물의 가치를 극대화하는 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> In adaptive and hybrid environments, direction and insight can be provided using a specific cadence.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In perdictive environments, there can be designated checkpoints for persentation of and feedback on project progress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응형 및 하이브리드 환경에서는 특정 주기를 사용하여 방향과 통찰력을 제공할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측형 환경에서는 프로젝트 진행 상황을 설명하고 피드백을 제공하기 위한 체크포인트를 지정할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>cadence =억양, 리듬, 운율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In some instances, business direction can interact with funding and resourcing functions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경우에 따라 사업 방향은 자금 및 자원 관리 기능과 상호 작용할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.7 Provide resources and direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> People in this function promote the porject and communicate the organization's vision, goals, and expectations to the projedt team and broader stakeholder community.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They advocate for the project and the project team by helping to secure the decisions, resources, and authority that allow project activities to progress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 및 방향 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능을 담당하는 사람들은 프로젝트를 홍보하고 조직의 비전, 목표, 기대치를 프로젝트팀과 더 넓은 이해관계자 커뮤니티에 전달합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 활동이 진행될 수 있도록 의사 결정, 리소스, 권한을 확보하는 데 도움을 줌으로써 프로젝트와 프로젝트팀을 옹호합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate 옹호하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> People in this function serve as liaisons between senior management and the project team, play a supporting role in keeping projects aligned to business objectives, remove obstacles, and address issues outside the bounds of the projet teams's decision authority.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People in this function provide an escalation path for problems, issues, or risks that project teams cannot resolve or manage on their own, such as shortage of funcing or other resources, or deadlines that cannot be met.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251014 for 1 houre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 직무 담당자는 고위 경영진과 프로젝트 팀 간의 연락 담당자 역할을 하며, 프로젝트가 비즈니스 목표에 부합하도록 지원하고, 장애물을 제거하며, 프로젝트 팀의 의사 결정 권한 범위를 벗어나는 문제를 해결하는 데 도움을 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 직무 담당자는 프로젝트 팀이 자체적으로 해결하거나 관리할 수 없는 문제, 이슈 또는 위험(예: 자금 또는 기타 자원 부족, 마감일 준수 불가)에 대한 에스컬레이션 경로를 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> This function can facilitate innovation by identifying opportunities that arise within the project and communicating these to senior management.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People in this function may monitor project outcomes after project closure to ensure the intended business benefits are realized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능은 프로젝트 내에서 발생하는 기회를 파악하고 이를 고위 경영진에게 전달하여 혁신을 촉진할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능에 참여하는 사람들은 프로젝트 종료 후에도 프로젝트 결과를 모니터링하여 의도한 비즈니스 이점이 실현되는지 확인할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,12 +1089,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B7DEE1-DB0C-4E0C-BA61-19AE00470976}">
   <dimension ref="A1:E318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2435,172 +2577,396 @@
       <c r="B118" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" t="s">
+        <v>234</v>
+      </c>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
